--- a/biology/Zoologie/Grèbe_à_face_blanche/Grèbe_à_face_blanche.xlsx
+++ b/biology/Zoologie/Grèbe_à_face_blanche/Grèbe_à_face_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_%C3%A0_face_blanche</t>
+          <t>Grèbe_à_face_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmophorus clarkii
 Le Grèbe à face blanche (Aechmophorus clarkii) est une espèce de grèbes du continent nord américain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_%C3%A0_face_blanche</t>
+          <t>Grèbe_à_face_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 64 cm de longueur. Il ressemble beaucoup au Grèbe élégant mais en diffère par la couleur jaune orange et la forme légèrement incurvée de son bec, la calotte noire ne descendant généralement pas jusqu'au niveau des yeux, le dos et les flancs plus pâles ainsi que la bande alaire blanche de chaque aile plus étendue (caractère visible surtout en vol).
 </t>
